--- a/data/FAQ_EXFSRI_2024.xlsx
+++ b/data/FAQ_EXFSRI_2024.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philippe.francais-01\Desktop\Passation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anael.delorme\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A82394C-54DA-4264-AB27-ED0D0792AFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="1" r:id="rId1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="264">
   <si>
     <t>Foire aux questions</t>
   </si>
@@ -1543,7 +1544,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1724,7 +1725,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1762,7 +1769,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2"/>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1794,18 +1807,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2828925</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>7791450</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>1500073</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1848,7 +1867,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1886,7 +1911,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2"/>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2174,7 +2205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2278,7 +2309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
@@ -2469,7 +2500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -2589,11 +2620,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2811,160 +2842,152 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
         <v>120</v>
       </c>
+      <c r="B29" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>192</v>
+      </c>
       <c r="B30" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="B45" s="15" t="s">
         <v>263</v>
       </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
+      <c r="A47" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2974,7 +2997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -3296,7 +3319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
@@ -3791,7 +3814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -3904,7 +3927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4013,7 +4036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/FAQ_EXFSRI_2024.xlsx
+++ b/data/FAQ_EXFSRI_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anael.delorme\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A82394C-54DA-4264-AB27-ED0D0792AFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C861A731-AF1F-4663-A757-1462BAE0B3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="262">
   <si>
     <t>Foire aux questions</t>
   </si>
@@ -773,12 +773,6 @@
   <si>
     <t>La récolte du bois d’œuvre implique une récolte simultanée de bois de moindre qualité, sauf que je n'ai rien en bois de trituration ni en bois énergie de déclarer.
 À quoi cela peut-il correspondre alors ?</t>
-  </si>
-  <si>
-    <t>Questions</t>
-  </si>
-  <si>
-    <t>Réponses</t>
   </si>
   <si>
     <t>Concernant le fait que la récolte du bois d’œuvre implique une récolte simultanée de bois de moindre qualité, c'est une question qui n'est pas facile à trancher.
@@ -2251,7 +2245,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2259,7 +2253,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2267,15 +2261,15 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2283,7 +2277,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2291,15 +2285,15 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2313,7 +2307,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2479,19 +2473,15 @@
       <c r="A20" s="7"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>109</v>
-      </c>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
     </row>
     <row r="22" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2503,8 +2493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2538,27 +2528,23 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>109</v>
-      </c>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2623,7 +2609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
@@ -2763,50 +2749,50 @@
     </row>
     <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>133</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -2822,7 +2808,7 @@
         <v>83</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2847,135 +2833,135 @@
         <v>107</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3000,8 +2986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3023,7 +3009,7 @@
         <v>88</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -3044,10 +3030,10 @@
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -3060,26 +3046,26 @@
     </row>
     <row r="7" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>138</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -3124,67 +3110,63 @@
     </row>
     <row r="15" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>109</v>
-      </c>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
     </row>
     <row r="17" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3322,8 +3304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3342,31 +3324,31 @@
     </row>
     <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>93</v>
@@ -3374,18 +3356,18 @@
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3393,12 +3375,12 @@
         <v>102</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>103</v>
@@ -3406,109 +3388,105 @@
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>109</v>
-      </c>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
     </row>
     <row r="13" spans="1:2" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="249" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3817,8 +3795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3837,59 +3815,55 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>109</v>
-      </c>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3931,7 +3905,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3950,83 +3924,79 @@
     </row>
     <row r="2" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>109</v>
-      </c>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4039,7 +4009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -4062,39 +4032,39 @@
         <v>87</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/FAQ_EXFSRI_2024.xlsx
+++ b/data/FAQ_EXFSRI_2024.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anael.delorme\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C861A731-AF1F-4663-A757-1462BAE0B3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079B29B8-3C35-4F4D-93AE-AEA493177E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="1" r:id="rId1"/>
     <sheet name="Univers" sheetId="2" r:id="rId2"/>
-    <sheet name="Codification" sheetId="3" r:id="rId3"/>
-    <sheet name="Recolte" sheetId="4" r:id="rId4"/>
-    <sheet name="Sciages_Approv" sheetId="5" r:id="rId5"/>
-    <sheet name="SriProd" sheetId="9" r:id="rId6"/>
-    <sheet name="Autres activités" sheetId="6" r:id="rId7"/>
-    <sheet name="Connexes" sheetId="7" r:id="rId8"/>
-    <sheet name="Controle" sheetId="10" r:id="rId9"/>
+    <sheet name="Nouveau truc" sheetId="11" r:id="rId3"/>
+    <sheet name="Codification" sheetId="3" r:id="rId4"/>
+    <sheet name="Recolte" sheetId="4" r:id="rId5"/>
+    <sheet name="Sciages_Approv" sheetId="5" r:id="rId6"/>
+    <sheet name="SriProd" sheetId="9" r:id="rId7"/>
+    <sheet name="Autres activités" sheetId="6" r:id="rId8"/>
+    <sheet name="Connexes" sheetId="7" r:id="rId9"/>
+    <sheet name="Controle" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="266">
   <si>
     <t>Foire aux questions</t>
   </si>
@@ -1533,6 +1534,18 @@
   </si>
   <si>
     <t>si l'entreprise les coupe elle-même alors elle doit en effet les déclarer dans plaquettes forestières code 816</t>
+  </si>
+  <si>
+    <t>Ma question</t>
+  </si>
+  <si>
+    <t>Ma réponse</t>
+  </si>
+  <si>
+    <t>Biduel</t>
+  </si>
+  <si>
+    <t>machin</t>
   </si>
 </sst>
 </file>
@@ -2302,12 +2315,123 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="146.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2325,162 +2449,170 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="73.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="5" spans="1:2" ht="73.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B6" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="7" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="9" spans="1:2" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B10" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B11" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="12" spans="1:2" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B12" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="13" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="187.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="14" spans="1:2" ht="187.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B14" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="15" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B15" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-    </row>
-    <row r="22" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="21" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+    </row>
+    <row r="23" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B23" s="15" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2490,6 +2622,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8092A655-54B8-470A-AFAC-A816FDD68BBB}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -2605,7 +2768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B47"/>
   <sheetViews>
@@ -2982,7 +3145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B54"/>
   <sheetViews>
@@ -3300,7 +3463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B97"/>
   <sheetViews>
@@ -3791,7 +3954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -3900,7 +4063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -4003,115 +4166,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="146.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/FAQ_EXFSRI_2024.xlsx
+++ b/data/FAQ_EXFSRI_2024.xlsx
@@ -5,28 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anael.delorme\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anael.delorme\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00ECFA4-1703-415D-A940-DBFB5362555D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF8E626-1561-4883-B0A0-B115E87B5A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="991" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="991" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="1" r:id="rId1"/>
-    <sheet name="Univers" sheetId="2" r:id="rId2"/>
-    <sheet name="Codification" sheetId="3" r:id="rId3"/>
+    <sheet name="UNIVERS" sheetId="2" r:id="rId2"/>
+    <sheet name="CODIFICATION " sheetId="3" r:id="rId3"/>
     <sheet name="RECOLTE " sheetId="4" r:id="rId4"/>
-    <sheet name="Sciages_Approv" sheetId="5" r:id="rId5"/>
-    <sheet name="SriProd" sheetId="6" r:id="rId6"/>
-    <sheet name="Autres activités" sheetId="7" r:id="rId7"/>
-    <sheet name="Connexes" sheetId="8" r:id="rId8"/>
-    <sheet name="Controle" sheetId="9" r:id="rId9"/>
+    <sheet name="STOCKS ET APPROV" sheetId="5" r:id="rId5"/>
+    <sheet name="SCIAGES" sheetId="6" r:id="rId6"/>
+    <sheet name="AUTRES PRODUITS TRANSFORMES" sheetId="7" r:id="rId7"/>
+    <sheet name="CONNEXES" sheetId="8" r:id="rId8"/>
+    <sheet name="CONTROLES" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'RECOLTE '!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="275">
   <si>
     <t>Foire aux questions</t>
   </si>
@@ -56,39 +56,18 @@
     <t>Sujets abordés</t>
   </si>
   <si>
-    <t>Univers</t>
-  </si>
-  <si>
     <t>Entreprises entrant dans le champ, précisions sur les définitions, types de répondants</t>
   </si>
   <si>
-    <t>Codification</t>
-  </si>
-  <si>
     <t>Onglets Identification, Activité et Fin</t>
   </si>
   <si>
-    <t>Récolte</t>
-  </si>
-  <si>
     <t>Définitions, précisions sur les réponses attendues, Onglets ExfRecolte, Recolte9K99, DestRecolte</t>
   </si>
   <si>
-    <t>Sciages</t>
-  </si>
-  <si>
     <t>Définitions, précisions sur les réponses attendues, Onglets SriSciage, SriApprovStock</t>
   </si>
   <si>
-    <t>SciProd</t>
-  </si>
-  <si>
-    <t>Définitions, précisions sur les réponses attendues, Onglet SriProd pour Merrains, Bois sous Rail et Sciages</t>
-  </si>
-  <si>
-    <t>Autres activités</t>
-  </si>
-  <si>
     <t>Définitions, précisions pour Produits finis, Onglet SriAutrTransf</t>
   </si>
   <si>
@@ -98,10 +77,13 @@
     <t>Définitions, précisions sur les réponses attendues, Onglet SriConnexes</t>
   </si>
   <si>
-    <t>Contrôles</t>
-  </si>
-  <si>
     <t>Les contrôles CAPIBARA : compléments d'information sur les plus importants</t>
+  </si>
+  <si>
+    <t>Sujets</t>
+  </si>
+  <si>
+    <t>Observations</t>
   </si>
   <si>
     <t>Objectifs de l'enquête</t>
@@ -1538,10 +1520,31 @@
     <t>Généralités sur les bois destinés à l'industrie</t>
   </si>
   <si>
+    <t>UNIVERS</t>
+  </si>
+  <si>
+    <t>CODIFICATION</t>
+  </si>
+  <si>
+    <t>SCIAGES</t>
+  </si>
+  <si>
+    <t>PRODUITS CONNEXES</t>
+  </si>
+  <si>
+    <t>AUTRES PRODUITS TRANSFORMÉS</t>
+  </si>
+  <si>
+    <t>RÉCOLTE</t>
+  </si>
+  <si>
+    <t>CONTRÖLES</t>
+  </si>
+  <si>
+    <t>Sujet</t>
+  </si>
+  <si>
     <t>Réponse</t>
-  </si>
-  <si>
-    <t>Sujet</t>
   </si>
   <si>
     <t>Sous-thème</t>
@@ -2283,15 +2286,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
     <col min="2" max="2" width="114.28515625"/>
     <col min="3" max="3" width="28.85546875"/>
     <col min="4" max="4" width="15.85546875"/>
@@ -2318,66 +2321,58 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>266</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>270</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>267</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>269</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>268</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2390,8 +2385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2404,160 +2399,160 @@
   <sheetData>
     <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>272</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C3" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="88.5" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="188.25" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2566,18 +2561,18 @@
     </row>
     <row r="21" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C21" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="240" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2590,8 +2585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2601,58 +2596,58 @@
     <col min="5" max="1027" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>271</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="14" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="11" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="C5" s="13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="C6" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2667,7 +2662,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2681,549 +2676,549 @@
   <sheetData>
     <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>272</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="25" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B6" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B8" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B9" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B10" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B11" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B12" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B13" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B14" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B16" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B17" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B18" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="B19" t="s">
-        <v>268</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>257</v>
-      </c>
       <c r="D19" s="18" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B20" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B21" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B22" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="18" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="18" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="285" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3238,7 +3233,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3250,120 +3245,120 @@
   <sheetData>
     <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>272</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C2" s="15" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C3" s="20" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C4" s="21" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" s="21" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C8" s="15" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C9" s="15" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="C10" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="15" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="15" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="C13" s="6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C14" s="15" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3372,66 +3367,66 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C16" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="195" x14ac:dyDescent="0.25">
       <c r="C17" s="13" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="90" x14ac:dyDescent="0.25">
       <c r="C18" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="13" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C21" s="13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="210" x14ac:dyDescent="0.25">
       <c r="C22" s="13" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="75" x14ac:dyDescent="0.25">
       <c r="C23" s="13" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3446,7 +3441,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3458,88 +3453,88 @@
   <sheetData>
     <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>272</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="C2" s="15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" s="15" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C4" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C5" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C6" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="6" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="15" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="15" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C10" s="6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3548,98 +3543,98 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C12" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="13" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C15" s="13" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C16" s="6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C18" s="6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C19" s="13" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="13" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="13" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="249" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="13" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C23" s="13" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3653,7 +3648,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3665,24 +3660,24 @@
   <sheetData>
     <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>272</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C2" s="15" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3691,50 +3686,50 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="C5" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C6" s="13" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C7" s="13" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="C8" s="13" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="C9" s="13" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3748,7 +3743,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3760,56 +3755,56 @@
   <sheetData>
     <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>272</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="14" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C3" s="15" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" s="15" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" s="23" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="C6" s="23" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3818,42 +3813,42 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="C9" s="18" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C10" s="13" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="13" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C12" s="13" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3866,12 +3861,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.140625"/>
     <col min="4" max="4" width="146.5703125"/>
     <col min="5" max="1027" width="10.7109375"/>
@@ -3879,56 +3875,56 @@
   <sheetData>
     <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>272</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C2" s="15" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C3" s="13" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C4" s="13" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C5" s="13" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C6" s="13" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/data/FAQ_EXFSRI_2024.xlsx
+++ b/data/FAQ_EXFSRI_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anael.delorme\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anael.delorme\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF8E626-1561-4883-B0A0-B115E87B5A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE336D6-CFBE-4F5D-92A7-A9FD09D85933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="991" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="991" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="1" r:id="rId1"/>
@@ -837,15 +837,6 @@
 En page 29 des instructions, il est noté que que ces plaquettes forestières sont des plaquettes broyées en forêt sur coupe ou bord de route.. : par qui? l'exploitant forestier obligatoirement, ou non ?</t>
   </si>
   <si>
-    <t>Voici les 2 cas de figures :
-    cas 1 : si les plaquettes sont fabriqués sur le site de l'entreprise, alors cela dépend de la destination :
-        si c'est pour du bois énergie, c'est bien 813
-        si c'est pour de la trituration, c'est selon l'essence : 520, 530, 550 ou 554
-    cas 2 : si les plaquettes sont fabriquées en forêt ou bord de route ou sur une place de stockage alors
-        c'est du 816 a déclarer par l'exploitant qui a réaliser la coupe ET le broyage
-        c'est du 813, 520, 530, 550 ou 554 si l'exploitant a vendu le bois rond et que c'est une autre entreprise qui réalise le broyage. Notons que cela peut être une autre entreprise qui réalise le broyage en tant que prestataire de service : dans ce cas, l'exploitant étant toujours propriétaire des plaquettes, alors c'est du 816.</t>
-  </si>
-  <si>
     <t>L'entreprise SARL RICHARD JOEL fabrique des bardeaux en châtaignier fendus à la main, qui sont ensuite délignés et légèrement rabotés sur le haut pour faciliter la pose.
 Cette entreprise exploite aussi.
 Comment doit-on classer ces bardeaux dans l'enquête.</t>
@@ -1548,6 +1539,15 @@
   </si>
   <si>
     <t>Sous-thème</t>
+  </si>
+  <si>
+    <t>Voici les 2 cas de figures : 
+    cas 1 : si les plaquettes sont fabriqués sur le site de l'entreprise, alors cela dépend de la destination :
+        si c'est pour du bois énergie, c'est bien 813
+        si c'est pour de la trituration, c'est selon l'essence : 520, 530, 550 ou 554
+    cas 2 : si les plaquettes sont fabriquées en forêt ou bord de route ou sur une place de stockage alors
+        c'est du 816 a déclarer par l'exploitant qui a réaliser la coupe ET le broyage
+        c'est du 813, 520, 530, 550 ou 554 si l'exploitant a vendu le bois rond et que c'est une autre entreprise qui réalise le broyage. Notons que cela peut être une autre entreprise qui réalise le broyage en tant que prestataire de service : dans ce cas, l'exploitant étant toujours propriétaire des plaquettes, alors c'est du 816.</t>
   </si>
 </sst>
 </file>
@@ -2321,7 +2321,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -2385,7 +2385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -2399,16 +2399,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C1" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>272</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -2622,16 +2622,16 @@
     </row>
     <row r="4" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C4" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>272</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -2661,8 +2661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2676,36 +2676,36 @@
   <sheetData>
     <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C1" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>272</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" t="s">
         <v>249</v>
-      </c>
-      <c r="B2" t="s">
-        <v>250</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" t="s">
         <v>245</v>
-      </c>
-      <c r="B3" t="s">
-        <v>246</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>61</v>
@@ -2716,10 +2716,10 @@
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" t="s">
         <v>245</v>
-      </c>
-      <c r="B4" t="s">
-        <v>246</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>63</v>
@@ -2730,13 +2730,13 @@
     </row>
     <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" t="s">
         <v>245</v>
       </c>
-      <c r="B5" t="s">
-        <v>246</v>
-      </c>
       <c r="C5" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>65</v>
@@ -2744,10 +2744,10 @@
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" t="s">
         <v>245</v>
-      </c>
-      <c r="B6" t="s">
-        <v>246</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>66</v>
@@ -2758,10 +2758,10 @@
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" t="s">
         <v>245</v>
-      </c>
-      <c r="B7" t="s">
-        <v>246</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>68</v>
@@ -2772,24 +2772,24 @@
     </row>
     <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>70</v>
@@ -2800,10 +2800,10 @@
     </row>
     <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>72</v>
@@ -2814,10 +2814,10 @@
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>74</v>
@@ -2828,10 +2828,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>76</v>
@@ -2842,10 +2842,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>78</v>
@@ -2856,10 +2856,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>80</v>
@@ -2870,10 +2870,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>82</v>
@@ -2884,10 +2884,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>84</v>
@@ -2898,10 +2898,10 @@
     </row>
     <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>85</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>87</v>
@@ -2926,13 +2926,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>89</v>
@@ -2940,10 +2940,10 @@
     </row>
     <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>90</v>
@@ -2954,10 +2954,10 @@
     </row>
     <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>92</v>
@@ -2968,10 +2968,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>94</v>
@@ -2982,15 +2982,15 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>97</v>
@@ -3001,10 +3001,10 @@
     </row>
     <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>99</v>
@@ -3015,10 +3015,10 @@
     </row>
     <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="18" t="s">
@@ -3027,7 +3027,7 @@
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="18" t="s">
@@ -3036,18 +3036,18 @@
     </row>
     <row r="28" spans="1:4" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>102</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>103</v>
@@ -3058,7 +3058,7 @@
     </row>
     <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>105</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>107</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>109</v>
@@ -3091,7 +3091,7 @@
     </row>
     <row r="33" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>111</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>113</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="35" spans="1:4" ht="285" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>115</v>
@@ -3124,18 +3124,18 @@
     </row>
     <row r="36" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>117</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>118</v>
@@ -3146,79 +3146,79 @@
     </row>
     <row r="38" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>120</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>123</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>124</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>125</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C43" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>126</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3245,120 +3245,120 @@
   <sheetData>
     <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C1" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>272</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C2" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>129</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C3" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>131</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C4" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>133</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>135</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>137</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C8" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>141</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C9" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>143</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="C10" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>145</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>147</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>149</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="C13" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>151</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C14" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>153</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3375,58 +3375,58 @@
     </row>
     <row r="17" spans="3:4" ht="195" x14ac:dyDescent="0.25">
       <c r="C17" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>155</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="90" x14ac:dyDescent="0.25">
       <c r="C18" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>157</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>159</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C20" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>161</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C21" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>163</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="210" x14ac:dyDescent="0.25">
       <c r="C22" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>165</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="75" x14ac:dyDescent="0.25">
       <c r="C23" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>167</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3453,88 +3453,88 @@
   <sheetData>
     <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C1" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>272</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="C2" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>169</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>171</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C4" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>173</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C5" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>175</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C6" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>177</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>139</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C10" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>181</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3551,90 +3551,90 @@
     </row>
     <row r="13" spans="1:4" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>185</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C15" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>187</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C16" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>189</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>191</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C18" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>193</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C19" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>195</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>197</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="249" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>201</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C23" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>203</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3660,24 +3660,24 @@
   <sheetData>
     <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C1" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>272</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C2" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>205</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3694,42 +3694,42 @@
     </row>
     <row r="5" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="C5" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>207</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C6" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>209</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C7" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>195</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="C8" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>211</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="C9" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>213</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3755,56 +3755,56 @@
   <sheetData>
     <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C1" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>272</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>215</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C3" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>217</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>219</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C5" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>221</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="C6" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>223</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3821,34 +3821,34 @@
     </row>
     <row r="9" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="C9" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>225</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C10" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>227</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>229</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C12" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>209</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3875,56 +3875,56 @@
   <sheetData>
     <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C1" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>272</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C2" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>231</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C3" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>233</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C4" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>235</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C5" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>237</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C6" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>239</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/data/FAQ_EXFSRI_2024.xlsx
+++ b/data/FAQ_EXFSRI_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anael.delorme\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE336D6-CFBE-4F5D-92A7-A9FD09D85933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837407A2-2FB0-4707-88E8-5130178AB567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="991" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <sheet name="CONTROLES" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'RECOLTE '!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'RECOLTE '!$A$1:$D$43</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="275">
   <si>
     <t>Foire aux questions</t>
   </si>
@@ -1856,13 +1856,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2855880</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>143280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>7818120</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>1490760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2659,10 +2659,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2980,12 +2980,21 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>244</v>
+      </c>
       <c r="B23" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="C23" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>244</v>
       </c>
@@ -2993,67 +3002,64 @@
         <v>261</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>244</v>
-      </c>
-      <c r="B25" t="s">
-        <v>261</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>99</v>
-      </c>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" s="15"/>
       <c r="D25" s="18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>260</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>251</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>251</v>
-      </c>
-      <c r="C27" s="15"/>
+        <v>240</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="D27" s="18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>240</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>240</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>103</v>
+      <c r="C29" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3061,167 +3067,157 @@
         <v>240</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>240</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>240</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>240</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="285" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>240</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>240</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>240</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>240</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>240</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>240</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>240</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>240</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>240</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>240</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>240</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D44" s="13" t="s">
         <v>258</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D43" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/data/FAQ_EXFSRI_2024.xlsx
+++ b/data/FAQ_EXFSRI_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anael.delorme\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ssp\sdsafa\bssae\EXF-SRI\2024\FAQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837407A2-2FB0-4707-88E8-5130178AB567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A31C14D-26FD-49CA-8642-E67B194E5700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="991" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="991" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="1" r:id="rId1"/>
@@ -24,20 +24,9 @@
     <sheet name="CONTROLES" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'RECOLTE '!$A$1:$D$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3">'RECOLTE '!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -56,34 +45,58 @@
     <t>Sujets abordés</t>
   </si>
   <si>
+    <t>UNIVERS</t>
+  </si>
+  <si>
     <t>Entreprises entrant dans le champ, précisions sur les définitions, types de répondants</t>
   </si>
   <si>
+    <t>CODIFICATION</t>
+  </si>
+  <si>
     <t>Onglets Identification, Activité et Fin</t>
   </si>
   <si>
+    <t>RÉCOLTE</t>
+  </si>
+  <si>
     <t>Définitions, précisions sur les réponses attendues, Onglets ExfRecolte, Recolte9K99, DestRecolte</t>
   </si>
   <si>
+    <t>SCIAGES</t>
+  </si>
+  <si>
     <t>Définitions, précisions sur les réponses attendues, Onglets SriSciage, SriApprovStock</t>
   </si>
   <si>
+    <t>AUTRES PRODUITS TRANSFORMÉS</t>
+  </si>
+  <si>
     <t>Définitions, précisions pour Produits finis, Onglet SriAutrTransf</t>
   </si>
   <si>
-    <t>Connexes</t>
+    <t>PRODUITS CONNEXES</t>
   </si>
   <si>
     <t>Définitions, précisions sur les réponses attendues, Onglet SriConnexes</t>
   </si>
   <si>
+    <t>CONTRÖLES</t>
+  </si>
+  <si>
     <t>Les contrôles CAPIBARA : compléments d'information sur les plus importants</t>
   </si>
   <si>
-    <t>Sujets</t>
-  </si>
-  <si>
-    <t>Observations</t>
+    <t>Sous-thème</t>
+  </si>
+  <si>
+    <t>Chapitre</t>
+  </si>
+  <si>
+    <t>Sujet</t>
+  </si>
+  <si>
+    <t>Réponse</t>
   </si>
   <si>
     <t>Objectifs de l'enquête</t>
@@ -530,6 +543,9 @@
     <t>Il existe quelques entreprises qui ne font que ces produits mais attention, elles doivent déclarer leurs connexes.</t>
   </si>
   <si>
+    <t>Connexes</t>
+  </si>
+  <si>
     <t>Toutes les entreprises transformant du bois produisent des connxes qui doivent être déclarés même s'ils ne sont pas vendu ou s'il sont stockés.</t>
   </si>
   <si>
@@ -568,6 +584,12 @@
 Par conséquent, par exemple, s'il gère 10 GF mais que la coupe vendu bord de route ne concerne que 3 GF, alors il doit ventiler les bois de cette coupe dans les 3 déclarations par GF. Enfin, si ces GF vendent en plus du bois sur pied, bien évidemment, celui-ci ne devra pas être déclaré dans EXF.</t>
   </si>
   <si>
+    <t>Sujets</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
     <t>ACCEPT :</t>
   </si>
   <si>
@@ -595,16 +617,31 @@
     <t>En fin de campagne, pour chaque questionnaires collecté le code VALIDSRISE prendra la modalité 5-NPAI, 6-A expertiser par le SSP ou 7-CAPI validé.</t>
   </si>
   <si>
+    <t>Généralités</t>
+  </si>
+  <si>
+    <t>Évolution de la récolte de bois d'un déclarant</t>
+  </si>
+  <si>
+    <t>La récolte de bois étant liée aux coupes achetées, il peut y avoir des variations d'une année sur l'autre importante concernant les essences exploitées et les départements de récolte. Cependant, l'évolution du volume total est à surveiller car un exploitant a besoin d'un certain volume régulier pour faire tourner son entreprise. Par contre, cela n'est pas le cas des propriétaires, notamment les groupements forestiers. En effet, il récolte les coupes prévues dans leur plan de gestion et donc peuvent vendre peu (ou rien) une année et beaucoup l'année suivante).</t>
+  </si>
+  <si>
+    <t>Récolte par département</t>
+  </si>
+  <si>
+    <t>Généralités sur les grumes de feuillus</t>
+  </si>
+  <si>
     <t>Chêne (100 et 110)</t>
   </si>
   <si>
-    <t>Les entreprises commercialisant des merrains qui ont une activité d'exploitant forestier peuvent avoir la totalité de leur récolte dans le code 100 (meilleure qualité) car c'est la qualité de bois nécessaire à leur production.</t>
-  </si>
-  <si>
     <t>Feuillus précieux (176)</t>
   </si>
   <si>
     <t>Voici la liste exhaustive des feuillus de cette catégorie : noyer, frêne, érable, merisier (i.e. cerisier sauvage), alisier, cormier, pommier, poirier, tilleul, aulne glutineux, robinier faux accacia.</t>
+  </si>
+  <si>
+    <t>Autres feuillus (270)</t>
   </si>
   <si>
     <t>Attention, uniquement si les essences d'arbres ne se retrouvent pas dans les autres essences déjà citées. Voici les essences entrant dans cette catégorie : charme, bouleau, orme, tremble, saule, platane, olivier, eucalyptus.
@@ -624,6 +661,16 @@
     <t>L'épidémie de scolyte étant toujours présente en France, il faut vérifier lorsqu'une entreprise déclare un gros volume d'épicéa (&gt; 10000 m3), elle n'a pas oublié de déclarer (une estimation suffit) un volume de "récolte de bois sanitaire" dans l'onglet Recolte9K99 (lui poser la question).</t>
   </si>
   <si>
+    <t>Généralités sur les grumes de conifères</t>
+  </si>
+  <si>
+    <t>Autres conifères (370)</t>
+  </si>
+  <si>
+    <t>Si une entreprise renseigne totalement sa récolte dans cette catégorie "Autres", il y a de fortes chances qu'il s'agisse d'une volonté de ne pas détailler les essences et donc de considérer cette catégorie comme un "fourre tout". Il convient donc de les "obliger" à donner le nom des essences de leur déclaration. S'ils déclarent qu'il ne peuvent pas différencier les essences, leur demander alors une estimation de l'essence majoritaire et de son pourcentage approximatif : cela sera renseigné dans la bonne catégorie et le reste dans le 270.
+Il convient de voir au préalable le département de récolte et de regarder s'il est situé dans les régions de la liste ci-dessous :</t>
+  </si>
+  <si>
     <t>Pin d'Alep</t>
   </si>
   <si>
@@ -667,6 +714,9 @@
   </si>
   <si>
     <t>Autres sapins (Nordmann, méditerranéen…)</t>
+  </si>
+  <si>
+    <t>Généralités sur les bois destinés à l'industrie</t>
   </si>
   <si>
     <t>Autres bois d'industrie feuillus (code 645)</t>
@@ -688,6 +738,12 @@
 Elle peut aussi concerner des bois destinés à être broyés en plaquettes ou des plaquettes réalisées en forêt DESTINEES au paillage ou autres utilisations (hors énergie, cf code 816)</t>
   </si>
   <si>
+    <t>Généralités sur les bois destinés à l'énergie</t>
+  </si>
+  <si>
+    <t>Définitions du bois énergie</t>
+  </si>
+  <si>
     <t>La récolte de bois destinés à l'énergie nécessite des explications des différentes catégories (ci-dessous) :</t>
   </si>
   <si>
@@ -714,9 +770,6 @@
     <t>Ce sont UNIQUEMENT des troncs qui sont broyés en forêt et non pas destinés à être transformés hors forêt en plaquettes forestières.</t>
   </si>
   <si>
-    <t>La récolte de bois peut être due à des facteurs accidentels (tempête, incendies, neiges lourdes...) ou sanitaires (attaques d'insectes, maladies, sécheresse...). Il peut donc y avoir des variations d'une année sur l'autre importante. Cependant, l'évolution de ces volumes est à surveiller notamment dans le cas des récoltes sanitaires dues aux attaques de scolytes sur épicéas essentiellement mais aussi sur sapin. Concernant les recoltes sanitaires, les autres essences peuvent être touchées dans une moindre mesure par d'autres insectes (spirale, dendroctone, bupreste...) et des bactérie comme la chalarose du Frêne...</t>
-  </si>
-  <si>
     <t>Bois "scié, transformés ou utilisé pour produire de l'énergie"</t>
   </si>
   <si>
@@ -730,11 +783,39 @@
     <t>Ces exploitants peuvent éventuellement utiliser une partie de leur récolte pour produire de l'énergie sur leur site. Dans ce cas, cela concerne uniquement la catégorie du bois énergie. Par conséquent, un exploitant "pur" ne peut pas déclarer utiliser des "grumes" destinées au sciages.</t>
   </si>
   <si>
+    <t>Récolte utilisée par l'entreprise, produits sanitaires/produits accidentels</t>
+  </si>
+  <si>
+    <t>Généralités sur la récolte de bois, accidentels/sanitaires</t>
+  </si>
+  <si>
+    <t>La récolte de bois peut être due à des facteurs accidentels (tempête, incendies, neiges lourdes...) ou sanitaires (attaques d'insectes, maladies, sécheresse...). Il peut donc y avoir des variations d'une année sur l'autre importante. Cependant, l'évolution de ces volumes est à surveiller notamment dans le cas des récoltes sanitaires dues aux attaques de scolytes sur épicéas essentiellement mais aussi sur sapin. Concernant les recoltes sanitaires, les autres essences peuvent être touchées dans une moindre mesure par d'autres insectes (spirale, dendroctone, bupreste...) et des bactérie comme la chalarose du Frêne...</t>
+  </si>
+  <si>
+    <t>Généralités sur la provenance de bois récoltés</t>
+  </si>
+  <si>
     <t>Il s'agit de savoir si le bois récolté provient de forêts ou d'autres zones comme les parcs, arbres d'alignement (bord de route nationale, départementale…), particuliers…</t>
+  </si>
+  <si>
+    <t>Questions posées par les utilisateurs ?</t>
   </si>
   <si>
     <t>La récolte du bois d’œuvre implique une récolte simultanée de bois de moindre qualité, sauf que je n'ai rien en bois de trituration ni en bois énergie de déclarer.
 À quoi cela peut-il correspondre alors ?</t>
+  </si>
+  <si>
+    <t>Concernant le fait que la récolte du bois d’œuvre implique une récolte simultanée de bois de moindre qualité, c'est une question qui n'est pas facile à trancher.
+En effet, généralement pour les résineux, les branches sont laissées sur place en forêt et non utilisées.
+Pour les feuillus et à fortiori le chêne (qui a des grosses branches), les rémanents de coupe (tout ce qui n'est pas le tronc ou grume selon son appellation) sont soit :
+ - laissés sur place donc non valorisés (rare)
+ - laissés sur place par l'exploitant mais valorisés par le propriétaire du foncier donc non commercialisé
+ - laissés sur place par l'exploitant (vendus ou non) mais valorisés par une entreprise "spécialisée" dans ce type de bois (donc commercialisé) pour vendre des bûches de bois énergie ou bien pour les broyer afin de faire des plaquettes forestières
+ - récupérés/valorisés par l'exploitant et donc déclarés par celui-ci en bois d'industrie ou bois énergie (BI/BE).
+Or dans le cadre de l'enquête internationale, nous sommes "en théorie" obligé de déclarer tout bois qui sort de la forêt (branches jusqu'au diamètre de 7,5 cm, donc pas les feuilles) ainsi que les souches, lorsqu'il y a dessouchage (essentiellement pour le pin maritime dans le massif des Landes).
+Par conséquent, les volumes de l'enquête EXF sont par défaut (et non par excès).
+Malheureusement l'absence de BI/BE pour des feuillus est un "manque" de volume par rapport à notre définition.
+On essaie au mieux de le récupérer mais comme il n'est souvent pas vendu, l'entreprise n'en a aucune idée.</t>
   </si>
   <si>
     <t>Suite au passage de SPIN-Epicea à Sapin ou Epicéa, aurais-tu une idée simple pour estimer les volumes de sapins et d'épicéas.
@@ -807,6 +888,12 @@
     <t>Un exploitant forestier a indiqué les volumes de pin maritime en grumes et billons en stère, existe t'il un coefficient de conversion de stère à m3 sur écorce pour les PM en grumes</t>
   </si>
   <si>
+    <t>En effet dans nos tableaux de conversion, ce cas de figure n'existe pas si ce sont des grumes destinées au sciage : est-ce le cas ?
+Dans le cas de figure où ces pins maritimes sont destinés à la trituration ou autre bois d'industrie, nous avons le coefficient dans le tableau : 0,85 m3 par stère de rondins en 2m
+Si ce sont des grumes de sciages alors c'est mieux de demander le tonnage (il doit l'avoir sûrement car la vente et surtout le transport se font généralement en tonnes).
+Dans le pire des cas, on prend le même coef que pour trituration, à savoir 0,85 m3 par stère.</t>
+  </si>
+  <si>
     <t>La fabrication des piquets est elle  considérée comme une activité de sciage ou pas?
 Nous avons le cas d'un exploitant forestier qui a abattu en 2020, 100 M3 de grumes qu'il a transformé en piquets. Doit on remplir la partie SRI (comme pour les poteaux) ?</t>
   </si>
@@ -820,7 +907,15 @@
 - Ou bien se référer au tableau de conversion "Autres bois d'industrie" et choisir le coef 1.40 pour passer de tonne brute en m3rond au titre des  bois d'industrie divers feuillus  ?</t>
   </si>
   <si>
+    <t>Dans ce cas, il s'agit de "Autres bois d'industrie" dans le questionnaire et que l'unité demandée est le m3r.
+La donnée fournie par l'entreprise est des tonnes de Chataignier pour faire des piquets, donc ce sont forcément des bois de faible diamètre.
+C'est pour cela qu'il faut utiliser le coef de 1,40 correspondant aux "Autres bois d'industrie feuillus".</t>
+  </si>
+  <si>
     <t>Un exploitant forestier vend une quarantaine de stères de résineux et de peupliers à un producteur de sapins de Noël qui les détaille en pieds de sapin. Dans quelle catégorie les saisit on?</t>
+  </si>
+  <si>
+    <t>Il faut classer ces volumes dans la catégorie "Autres bois d'industrie", Conifères.</t>
   </si>
   <si>
     <t>Un exploitant forestier m'a demandé si nous avions une formule pour calculer le volume de grume par camion.
@@ -828,13 +923,35 @@
 A-t-on une formule pour lui faciliter la tâche.</t>
   </si>
   <si>
+    <t>Dans le cas d'un volume de grumes de longueur minimale de 2 m, nous pouvons en effet valider la formule que cet exploitant utilise avec un coefficient que varie selon la nature du bois transporté :
+- volume en m3r sur écorce pour les résineux : longueur * largeur * hauteur * 0,7
+- volume en m3r sous écorce pour les résineux : longueur * largeur * hauteur * 0,65 (puis convertir sur écorce avec coef selon les essences dans tableau en rappel en pj)
+- volume en m3r sur écorce pour les feuillus : longueur * largeur * hauteur * 0,65
+Ces résultats sont en m3 et sont à conserver tels quels pour les grumes destinées au sciage.
+Attention, si ces bois sont destinés à la trituration ou à l'énergie, il faudra alors les convertir en tonne</t>
+  </si>
+  <si>
     <t>Comment renseigner une scierie qui propose seulement du bois de chauffage. Est-elle dans le champ activité de sciage.
 Cette entreprise récolte 50m3 de bois en forêt et en achète 300m3 pour le scier et le vendre en bois de chauffage.</t>
+  </si>
+  <si>
+    <t>Cette entreprise réalise du fendage (et non du sciage) pour vendre son bois en bois de chauffage.
+Par conséquent, elle n'est pas dans le champ SRI.
+Elle doit uniquement répondre au volet EXF, donc 50 m3 ; le reste étant une activité de vente de bois de chauffage, en dehors de notre champ.</t>
   </si>
   <si>
     <t>Si l'exploitant forestier vend par ex 200 tonnes de  bois ronds de plus de 2m à une entreprise qui les transporte sur son site et les transforme ensuite en plaquettes forestières , merci de me confirmer que l'enquêteur doit saisir ces 200 t en ligne 813 ?
 Et si l'entreprise qui achète ces 200 tonnes de bois les transforme en plaquettes broyées au bord de route, sur quelle ligne doit on saisir ces 200 t : ligne 813 ou bien 816?
 En page 29 des instructions, il est noté que que ces plaquettes forestières sont des plaquettes broyées en forêt sur coupe ou bord de route.. : par qui? l'exploitant forestier obligatoirement, ou non ?</t>
+  </si>
+  <si>
+    <t>Voici les 2 cas de figures :
+    cas 1 : si les plaquettes sont fabriqués sur le site de l'entreprise, alors cela dépend de la destination :
+        si c'est pour du bois énergie, c'est bien 813
+        si c'est pour de la trituration, c'est selon l'essence : 520, 530, 550 ou 554
+    cas 2 : si les plaquettes sont fabriquées en forêt ou bord de route ou sur une place de stockage alors
+        c'est du 816 a déclarer par l'exploitant qui a réaliser la coupe ET le broyage
+        c'est du 813, 520, 530, 550 ou 554 si l'exploitant a vendu le bois rond et que c'est une autre entreprise qui réalise le broyage. Notons que cela peut être une autre entreprise qui réalise le broyage en tant que prestataire de service : dans ce cas, l'exploitant étant toujours propriétaire des plaquettes, alors c'est du 816.</t>
   </si>
   <si>
     <t>L'entreprise SARL RICHARD JOEL fabrique des bardeaux en châtaignier fendus à la main, qui sont ensuite délignés et légèrement rabotés sur le haut pour faciliter la pose.
@@ -849,6 +966,9 @@
 Une fois ces taillis récupérés à titre gratuit, ils les transforment pour faire des plaquettes.
 Pourriez-vous me confirmer si le dossier 017620 est hors champs ou pas?
 Sinon, où faut il remplir pour indiquer ces quantités de taillis?</t>
+  </si>
+  <si>
+    <t>Si l'entreprise les coupe elle-même alors elle doit en effet les déclarer dans plaquettes forestières code 816</t>
   </si>
   <si>
     <t>Onglet SriSciage : généralités</t>
@@ -1416,145 +1536,14 @@
     <t>Même si les volumes sont généralement peu élevés, l'évolution d'une année sur l'autre des résultats régionaux de ces catégories peut être affectée. Il est impossible pour les services diffusion régionaux et nationaux de pouvoir justifier de fortes évolutions sauf à dire que ce sont des erreurs de saisies ou une volonté de l'enquêté de ne pas ventiler...</t>
   </si>
   <si>
-    <t>Questions posées par les utilisateurs ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Autres feuillus (270)</t>
-  </si>
-  <si>
-    <t>Autres conifères (370)</t>
-  </si>
-  <si>
-    <t>Chapitre</t>
-  </si>
-  <si>
-    <t>Récolte par département</t>
-  </si>
-  <si>
-    <t>Généralités sur les grumes de feuillus</t>
-  </si>
-  <si>
-    <t>La récolte de bois étant liée aux coupes achetées, il peut y avoir des variations d'une année sur l'autre importante concernant les essences exploitées et les départements de récolte. Cependant, l'évolution du volume total est à surveiller car un exploitant a besoin d'un certain volume régulier pour faire tourner son entreprise. Par contre, cela n'est pas le cas des propriétaires, notamment les groupements forestiers. En effet, il récolte les coupes prévues dans leur plan de gestion et donc peuvent vendre peu (ou rien) une année et beaucoup l'année suivante).</t>
-  </si>
-  <si>
-    <t>Récolte utilisée par l'entreprise, produits sanitaires/produits accidentels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Généralités </t>
-  </si>
-  <si>
-    <t>Évolution de la récolte de bois d'un déclarant</t>
-  </si>
-  <si>
-    <t>Définitions du bois énergie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Généralités sur la provenance de bois récoltés </t>
-  </si>
-  <si>
-    <t>Si une entreprise renseigne totalement sa récolte dans cette catégorie "Autres", il y a de fortes chances qu'il s'agisse d'une volonté de ne pas détailler les essences et donc de considérer cette catégorie comme un "fourre tout". Il convient donc de les "obliger" à donner le nom des essences de leur déclaration. S'ils déclarent qu'il ne peuvent pas différencier les essences, leur demander alors une estimation de l'essence majoritaire et de son pourcentage approximatif : cela sera renseigné dans la bonne catégorie et le reste dans le 270.
-Il convient de voir au préalable le département de récolte et de regarder s'il est situé dans les régions de la liste ci-dessous :</t>
-  </si>
-  <si>
-    <t>En effet dans nos tableaux de conversion, ce cas de figure n'existe pas si ce sont des grumes destinées au sciage : est-ce le cas ?
-Dans le cas de figure où ces pins maritimes sont destinés à la trituration ou autre bois d'industrie, nous avons le coefficient dans le tableau : 0,85 m3 par stère de rondins en 2m
-Si ce sont des grumes de sciages alors c'est mieux de demander le tonnage (il doit l'avoir sûrement car la vente et surtout le transport se font généralement en tonnes).
-Dans le pire des cas, on prend le même coef que pour trituration, à savoir 0,85 m3 par stère.</t>
-  </si>
-  <si>
-    <t>Dans ce cas, il s'agit de "Autres bois d'industrie" dans le questionnaire et que l'unité demandée est le m3r.
-La donnée fournie par l'entreprise est des tonnes de Chataignier pour faire des piquets, donc ce sont forcément des bois de faible diamètre.
-C'est pour cela qu'il faut utiliser le coef de 1,40 correspondant aux "Autres bois d'industrie feuillus".</t>
-  </si>
-  <si>
-    <t>Il faut classer ces volumes dans la catégorie "Autres bois d'industrie", Conifères.</t>
-  </si>
-  <si>
-    <t>Dans le cas d'un volume de grumes de longueur minimale de 2 m, nous pouvons en effet valider la formule que cet exploitant utilise avec un coefficient que varie selon la nature du bois transporté :
-- volume en m3r sur écorce pour les résineux : longueur * largeur * hauteur * 0,7
-- volume en m3r sous écorce pour les résineux : longueur * largeur * hauteur * 0,65 (puis convertir sur écorce avec coef selon les essences dans tableau en rappel en pj)
-- volume en m3r sur écorce pour les feuillus : longueur * largeur * hauteur * 0,65
-Ces résultats sont en m3 et sont à conserver tels quels pour les grumes destinées au sciage.
-Attention, si ces bois sont destinés à la trituration ou à l'énergie, il faudra alors les convertir en tonne</t>
-  </si>
-  <si>
-    <t>Cette entreprise réalise du fendage (et non du sciage) pour vendre son bois en bois de chauffage.
-Par conséquent, elle n'est pas dans le champ SRI.
-Elle doit uniquement répondre au volet EXF, donc 50 m3 ; le reste étant une activité de vente de bois de chauffage, en dehors de notre champ.</t>
-  </si>
-  <si>
-    <t>Si l'entreprise les coupe elle-même alors elle doit en effet les déclarer dans plaquettes forestières code 816</t>
-  </si>
-  <si>
-    <t>Concernant le fait que la récolte du bois d’œuvre implique une récolte simultanée de bois de moindre qualité, c'est une question qui n'est pas facile à trancher.
-En effet, généralement pour les résineux, les branches sont laissées sur place en forêt et non utilisées.
-Pour les feuillus et à fortiori le chêne (qui a des grosses branches), les rémanents de coupe (tout ce qui n'est pas le tronc ou grume selon son appellation) sont soit :
- - laissés sur place donc non valorisés (rare)
- - laissés sur place par l'exploitant mais valorisés par le propriétaire du foncier donc non commercialisé
- - laissés sur place par l'exploitant (vendus ou non) mais valorisés par une entreprise "spécialisée" dans ce type de bois (donc commercialisé) pour vendre des bûches de bois énergie ou bien pour les broyer afin de faire des plaquettes forestières
- - récupérés/valorisés par l'exploitant et donc déclarés par celui-ci en bois d'industrie ou bois énergie (BI/BE).
-Or dans le cadre de l'enquête internationale, nous sommes "en théorie" obligé de déclarer tout bois qui sort de la forêt (branches jusqu'au diamètre de 7,5 cm, donc pas les feuilles) ainsi que les souches, lorsqu'il y a dessouchage (essentiellement pour le pin maritime dans le massif des Landes).
-Par conséquent, les volumes de l'enquête EXF sont par défaut (et non par excès).
-Malheureusement l'absence de BI/BE pour des feuillus est un "manque" de volume par rapport à notre définition.
-On essaie au mieux de le récupérer mais comme il n'est souvent pas vendu, l'entreprise n'en a aucune idée.</t>
-  </si>
-  <si>
-    <t>Généralités sur la récolte de bois, accidentels/sanitaires</t>
-  </si>
-  <si>
-    <t>Généralités sur les bois destinés à l'énergie</t>
-  </si>
-  <si>
-    <t>Généralités sur les grumes de conifères</t>
-  </si>
-  <si>
-    <t>Généralités sur les bois destinés à l'industrie</t>
-  </si>
-  <si>
-    <t>UNIVERS</t>
-  </si>
-  <si>
-    <t>CODIFICATION</t>
-  </si>
-  <si>
-    <t>SCIAGES</t>
-  </si>
-  <si>
-    <t>PRODUITS CONNEXES</t>
-  </si>
-  <si>
-    <t>AUTRES PRODUITS TRANSFORMÉS</t>
-  </si>
-  <si>
-    <t>RÉCOLTE</t>
-  </si>
-  <si>
-    <t>CONTRÖLES</t>
-  </si>
-  <si>
-    <t>Sujet</t>
-  </si>
-  <si>
-    <t>Réponse</t>
-  </si>
-  <si>
-    <t>Sous-thème</t>
-  </si>
-  <si>
-    <t>Voici les 2 cas de figures : 
-    cas 1 : si les plaquettes sont fabriqués sur le site de l'entreprise, alors cela dépend de la destination :
-        si c'est pour du bois énergie, c'est bien 813
-        si c'est pour de la trituration, c'est selon l'essence : 520, 530, 550 ou 554
-    cas 2 : si les plaquettes sont fabriquées en forêt ou bord de route ou sur une place de stockage alors
-        c'est du 816 a déclarer par l'exploitant qui a réaliser la coupe ET le broyage
-        c'est du 813, 520, 530, 550 ou 554 si l'exploitant a vendu le bois rond et que c'est une autre entreprise qui réalise le broyage. Notons que cela peut être une autre entreprise qui réalise le broyage en tant que prestataire de service : dans ce cas, l'exploitant étant toujours propriétaire des plaquettes, alors c'est du 816.</t>
+    <t>Les entreprises  A commercialisant des merrains qui ont une activité d'exploitant forestier peuvent avoir la totalité de leur récolte dans le code 100 (meilleure qualité) car c'est la qualité de bois nécessaire à leur production.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1625,19 +1614,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1649,7 +1625,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -1665,7 +1641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1673,6 +1649,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1728,26 +1709,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1764,15 +1799,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>598680</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>-360</xdr:rowOff>
+      <xdr:colOff>625680</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>181080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4179600</xdr:colOff>
+      <xdr:colOff>4206240</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>952920</xdr:rowOff>
+      <xdr:rowOff>943560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1791,8 +1826,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="598680" y="190080"/>
-          <a:ext cx="3580920" cy="953280"/>
+          <a:off x="1915920" y="181080"/>
+          <a:ext cx="3580560" cy="952920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1807,15 +1842,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
+      <xdr:colOff>73080</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>200160</xdr:rowOff>
+      <xdr:rowOff>191160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3998520</xdr:colOff>
+      <xdr:colOff>4025160</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1591200</xdr:rowOff>
+      <xdr:rowOff>1581840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1834,8 +1869,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="46080" y="1371600"/>
-          <a:ext cx="3952440" cy="1391040"/>
+          <a:off x="1363320" y="1362600"/>
+          <a:ext cx="3952080" cy="1390680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1855,15 +1890,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2855880</xdr:colOff>
+      <xdr:colOff>2882880</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:rowOff>134280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7818120</xdr:colOff>
+      <xdr:colOff>7844760</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>1490760</xdr:rowOff>
+      <xdr:rowOff>1481400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1882,8 +1917,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6565320" y="17107200"/>
-          <a:ext cx="4962240" cy="1347480"/>
+          <a:off x="11732760" y="16536240"/>
+          <a:ext cx="4961880" cy="1347120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1903,15 +1938,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>6259680</xdr:colOff>
+      <xdr:colOff>6286680</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>381600</xdr:rowOff>
+      <xdr:rowOff>372600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>8217000</xdr:colOff>
+      <xdr:colOff>8243640</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1930,8 +1965,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9988920" y="3048480"/>
-          <a:ext cx="1957320" cy="1790280"/>
+          <a:off x="11306160" y="3039480"/>
+          <a:ext cx="1956960" cy="456480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1946,15 +1981,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7094520</xdr:colOff>
+      <xdr:colOff>7121520</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>8875440</xdr:colOff>
+      <xdr:colOff>8902080</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>752760</xdr:rowOff>
+      <xdr:rowOff>743400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1973,8 +2008,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10823760" y="4783320"/>
-          <a:ext cx="1780920" cy="741240"/>
+          <a:off x="12141000" y="3440880"/>
+          <a:ext cx="1780560" cy="740880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2294,7 +2329,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.140625"/>
     <col min="2" max="2" width="114.28515625"/>
     <col min="3" max="3" width="28.85546875"/>
     <col min="4" max="4" width="15.85546875"/>
@@ -2321,58 +2356,58 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>269</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>266</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>267</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>270</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2385,194 +2420,192 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="46.85546875" style="4"/>
     <col min="4" max="4" width="186.28515625" style="4"/>
     <col min="5" max="5" width="78.28515625"/>
-    <col min="6" max="1027" width="10.7109375"/>
+    <col min="6" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>272</v>
+    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>15</v>
+      <c r="C2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
+      <c r="C3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="C4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
+      <c r="C4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>21</v>
+      <c r="C5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>23</v>
+      <c r="C6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>25</v>
+      <c r="C7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="88.5" x14ac:dyDescent="0.25">
-      <c r="C8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>27</v>
+      <c r="C8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>29</v>
+      <c r="C9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="C10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>31</v>
+      <c r="C10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>33</v>
+      <c r="C11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>35</v>
+      <c r="C12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="188.25" x14ac:dyDescent="0.25">
-      <c r="C13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>37</v>
+      <c r="C13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="C14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>39</v>
+      <c r="C14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>41</v>
+      <c r="C15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>43</v>
+      <c r="C16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>45</v>
+      <c r="C17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>47</v>
+      <c r="C18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>48</v>
+      <c r="C19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="5"/>
+      <c r="C20" s="8"/>
       <c r="D20"/>
     </row>
     <row r="21" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>50</v>
+      <c r="C21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="240" x14ac:dyDescent="0.25">
-      <c r="C22" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>52</v>
+      <c r="C22" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2586,68 +2619,68 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="62.7109375"/>
     <col min="4" max="4" width="152.85546875"/>
-    <col min="5" max="1027" width="10.7109375"/>
+    <col min="5" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>13</v>
+      <c r="C1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>54</v>
+      <c r="C2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="127.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>272</v>
+      <c r="C3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="C5" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>58</v>
+      <c r="C5" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>60</v>
+      <c r="C6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2661,566 +2694,565 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="43"/>
+    <col min="2" max="2" width="40.85546875"/>
+    <col min="3" max="3" width="41.5703125" style="20"/>
     <col min="4" max="4" width="145.140625" style="4"/>
-    <col min="5" max="1027" width="10.7109375"/>
+    <col min="5" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>272</v>
+    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="25" t="s">
-        <v>246</v>
+        <v>73</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="21" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>62</v>
+        <v>76</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>64</v>
+        <v>76</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>241</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>65</v>
+        <v>76</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>69</v>
+        <v>76</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>252</v>
+        <v>86</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>71</v>
+        <v>86</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>73</v>
+        <v>86</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>75</v>
+        <v>86</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>77</v>
+        <v>86</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>262</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>79</v>
+        <v>86</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>262</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>81</v>
+        <v>86</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>262</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>83</v>
+        <v>86</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>262</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>83</v>
+        <v>86</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>263</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>86</v>
+        <v>104</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>263</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>88</v>
+        <v>104</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>89</v>
+        <v>109</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>261</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>91</v>
+        <v>109</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>261</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>93</v>
+        <v>109</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>261</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>95</v>
+        <v>109</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>261</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>98</v>
+        <v>109</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>244</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>261</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>100</v>
+        <v>109</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="18" t="s">
-        <v>96</v>
+      <c r="A25" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="21" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>251</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="18" t="s">
-        <v>101</v>
+        <v>125</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="21" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>240</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>259</v>
+        <v>127</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>240</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>104</v>
+        <v>127</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>106</v>
+        <v>127</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>240</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>108</v>
+        <v>127</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>240</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>110</v>
+        <v>127</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>240</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>112</v>
+        <v>127</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>240</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>114</v>
+        <v>127</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="285" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>240</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>116</v>
+        <v>127</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>240</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>253</v>
+        <v>127</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>240</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>119</v>
+        <v>127</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>240</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>254</v>
+        <v>127</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>240</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>255</v>
+        <v>127</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>240</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>256</v>
+        <v>127</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>240</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>257</v>
+        <v>127</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>240</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>274</v>
+        <v>127</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>240</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>240</v>
-      </c>
-      <c r="C43" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>258</v>
+      <c r="C43" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D43" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3228,133 +3260,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="52.85546875" style="17"/>
+    <col min="3" max="3" width="52.85546875" style="20"/>
     <col min="4" max="4" width="145.140625" style="4"/>
-    <col min="5" max="1027" width="10.7109375"/>
+    <col min="5" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>272</v>
+    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="C2" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>129</v>
+      <c r="C2" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C3" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>131</v>
+      <c r="C3" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C4" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>133</v>
+      <c r="C4" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C5" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>135</v>
+      <c r="C5" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C6" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>137</v>
+      <c r="C6" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>139</v>
+      <c r="C7" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C8" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>141</v>
+      <c r="C8" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="C9" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>143</v>
+      <c r="C9" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="C10" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>145</v>
+      <c r="C10" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>147</v>
+      <c r="C11" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>149</v>
+      <c r="C12" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="C13" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>151</v>
+      <c r="C13" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="C14" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>153</v>
+      <c r="C14" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3362,67 +3392,67 @@
       <c r="D15"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>50</v>
+      <c r="C16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="3:4" ht="195" x14ac:dyDescent="0.25">
-      <c r="C17" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>155</v>
+      <c r="C17" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="C18" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>157</v>
+      <c r="C18" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>159</v>
+      <c r="C19" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>161</v>
+      <c r="C20" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C21" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>163</v>
+      <c r="C21" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="C22" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>165</v>
+      <c r="C22" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="C23" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>167</v>
+      <c r="C23" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3436,201 +3466,199 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="56.5703125" style="17"/>
+    <col min="3" max="3" width="56.5703125" style="20"/>
     <col min="4" max="4" width="145.140625" style="4"/>
-    <col min="5" max="1027" width="10.7109375"/>
+    <col min="5" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>272</v>
+    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="C2" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>169</v>
+      <c r="C2" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>171</v>
+      <c r="C3" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="C5" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C6" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D7" s="21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="C5" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>139</v>
-      </c>
-    </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>178</v>
+      <c r="C8" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>149</v>
+      <c r="C9" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>181</v>
+      <c r="C10" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="6"/>
+      <c r="C11" s="9"/>
       <c r="D11"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>50</v>
+      <c r="C12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="185.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>183</v>
+      <c r="C13" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>185</v>
+      <c r="C14" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C15" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>187</v>
+      <c r="C15" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C16" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>189</v>
+      <c r="C16" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>191</v>
+      <c r="C17" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="C18" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>193</v>
+      <c r="C18" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C19" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>195</v>
+      <c r="C19" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="3:4" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>197</v>
+      <c r="C20" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="3:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>199</v>
+      <c r="C21" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="3:4" ht="249" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>201</v>
+      <c r="C22" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="C23" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>203</v>
+      <c r="C23" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3643,37 +3671,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="55.5703125" style="17"/>
+    <col min="3" max="3" width="55.5703125" style="20"/>
     <col min="4" max="4" width="145.140625" style="4"/>
-    <col min="5" max="1027" width="10.7109375"/>
+    <col min="5" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>272</v>
+    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C2" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>205</v>
+      <c r="C2" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3681,51 +3707,51 @@
       <c r="D3"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>50</v>
+      <c r="C4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="225" x14ac:dyDescent="0.25">
-      <c r="C5" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>207</v>
+      <c r="C5" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>209</v>
+      <c r="C6" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>195</v>
+      <c r="C7" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="C8" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>211</v>
+      <c r="C8" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="C9" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>213</v>
+      <c r="C9" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -3738,69 +3764,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="57.42578125" style="17"/>
+    <col min="3" max="3" width="57.42578125" style="20"/>
     <col min="4" max="4" width="145.140625" style="4"/>
-    <col min="5" max="1027" width="10.7109375"/>
+    <col min="5" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>272</v>
+    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>215</v>
+      <c r="C2" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C3" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>217</v>
+      <c r="C3" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>219</v>
+      <c r="C4" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C5" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>221</v>
+      <c r="C5" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="C6" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>223</v>
+      <c r="C6" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3808,43 +3832,43 @@
       <c r="D7"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>50</v>
+      <c r="C8" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="225" x14ac:dyDescent="0.25">
-      <c r="C9" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>225</v>
+      <c r="C9" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>227</v>
+      <c r="C10" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>229</v>
+      <c r="C11" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C12" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>209</v>
+      <c r="C12" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3857,70 +3881,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125"/>
     <col min="3" max="3" width="37.140625"/>
     <col min="4" max="4" width="146.5703125"/>
-    <col min="5" max="1027" width="10.7109375"/>
+    <col min="5" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="C2" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C3" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C4" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C5" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C6" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>273</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="C2" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C3" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C4" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C5" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C6" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/data/FAQ_EXFSRI_2024.xlsx
+++ b/data/FAQ_EXFSRI_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ssp\sdsafa\bssae\EXF-SRI\2024\FAQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A31C14D-26FD-49CA-8642-E67B194E5700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5F6B0A-4D78-43E8-841B-6484741BC7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="991" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1536,7 +1536,7 @@
     <t>Même si les volumes sont généralement peu élevés, l'évolution d'une année sur l'autre des résultats régionaux de ces catégories peut être affectée. Il est impossible pour les services diffusion régionaux et nationaux de pouvoir justifier de fortes évolutions sauf à dire que ce sont des erreurs de saisies ou une volonté de l'enquêté de ne pas ventiler...</t>
   </si>
   <si>
-    <t>Les entreprises  A commercialisant des merrains qui ont une activité d'exploitant forestier peuvent avoir la totalité de leur récolte dans le code 100 (meilleure qualité) car c'est la qualité de bois nécessaire à leur production.</t>
+    <t>Les entreprises  commercialisant des merrains qui ont une activité d'exploitant forestier peuvent avoir la totalité de leur récolte dans le code 100 (meilleure qualité) car c'est la qualité de bois nécessaire à leur production.</t>
   </si>
 </sst>
 </file>
@@ -2695,7 +2695,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/FAQ_EXFSRI_2024.xlsx
+++ b/data/FAQ_EXFSRI_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ssp\sdsafa\bssae\EXF-SRI\2024\FAQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5F6B0A-4D78-43E8-841B-6484741BC7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6460B1-7867-4086-A336-2DD793F58556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="991" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2695,7 +2695,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/FAQ_EXFSRI_2024.xlsx
+++ b/data/FAQ_EXFSRI_2024.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ssp\sdsafa\bssae\EXF-SRI\2024\FAQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6460B1-7867-4086-A336-2DD793F58556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BFF21F-AA6B-41E5-80D2-14C4122146E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="991" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="991" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="1" r:id="rId1"/>
     <sheet name="UNIVERS" sheetId="2" r:id="rId2"/>
     <sheet name="CODIFICATION " sheetId="3" r:id="rId3"/>
     <sheet name="RECOLTE " sheetId="4" r:id="rId4"/>
-    <sheet name="STOCKS ET APPROV" sheetId="5" r:id="rId5"/>
-    <sheet name="SCIAGES" sheetId="6" r:id="rId6"/>
-    <sheet name="AUTRES PRODUITS TRANSFORMES" sheetId="7" r:id="rId7"/>
-    <sheet name="CONNEXES" sheetId="8" r:id="rId8"/>
-    <sheet name="CONTROLES" sheetId="9" r:id="rId9"/>
+    <sheet name="TEST" sheetId="10" r:id="rId5"/>
+    <sheet name="STOCKS ET APPROV" sheetId="5" r:id="rId6"/>
+    <sheet name="SCIAGES" sheetId="6" r:id="rId7"/>
+    <sheet name="AUTRES PRODUITS TRANSFORMES" sheetId="7" r:id="rId8"/>
+    <sheet name="CONNEXES" sheetId="8" r:id="rId9"/>
+    <sheet name="CONTROLES" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">'RECOLTE '!$A$1:$D$1</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="275">
   <si>
     <t>Foire aux questions</t>
   </si>
@@ -2416,6 +2417,80 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125"/>
+    <col min="3" max="3" width="37.140625"/>
+    <col min="4" max="4" width="146.5703125"/>
+    <col min="5" max="1025" width="10.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="C2" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C3" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C4" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C5" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C6" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D22"/>
@@ -2694,8 +2769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3257,10 +3332,49 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31360E36-D019-4810-9971-B484BA5CAC40}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="C2" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3462,7 +3576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -3667,7 +3781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -3760,7 +3874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -3875,78 +3989,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125"/>
-    <col min="3" max="3" width="37.140625"/>
-    <col min="4" max="4" width="146.5703125"/>
-    <col min="5" max="1025" width="10.7109375"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="C2" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C3" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C4" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C5" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C6" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>273</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
 </file>